--- a/Output/Modelling/XGBoost/Tables/exclude_previous_Most_Complex_Model_Classification_Report.xlsx
+++ b/Output/Modelling/XGBoost/Tables/exclude_previous_Most_Complex_Model_Classification_Report.xlsx
@@ -463,27 +463,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.7905</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.7981</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.7943</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -495,17 +495,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.8182</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.5192</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.6353</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,54 +517,54 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.8571</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.7500</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.8000</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>208</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.8923</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.7532</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.8169</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>363</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.8219</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.8451</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.8333</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -598,54 +598,54 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.8000</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.8815</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.8388</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>154</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>CCC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.0000</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.0000</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.0000</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -657,17 +657,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -679,27 +679,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.7407</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.7692</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.7547</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -711,17 +711,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.0000</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.0000</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.0000</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">

--- a/Output/Modelling/XGBoost/Tables/exclude_previous_Most_Complex_Model_Classification_Report.xlsx
+++ b/Output/Modelling/XGBoost/Tables/exclude_previous_Most_Complex_Model_Classification_Report.xlsx
@@ -463,27 +463,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.8447</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.8894</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.8665</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>208</t>
         </is>
       </c>
     </row>
@@ -495,17 +495,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.8824</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.5769</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.6977</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,54 +517,54 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.9048</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.7917</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.8444</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.9272</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.9091</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.9180</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>154</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.9357</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.9225</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.9291</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -598,54 +598,54 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.9129</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.9532</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.9326</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>363</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.0000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.0000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>1.0000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -657,17 +657,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.0000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.5000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.6667</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -679,27 +679,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>CCC</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.7857</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.8462</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.8148</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -711,17 +711,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.0000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.0000</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.0000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">

--- a/Output/Modelling/XGBoost/Tables/exclude_previous_Most_Complex_Model_Classification_Report.xlsx
+++ b/Output/Modelling/XGBoost/Tables/exclude_previous_Most_Complex_Model_Classification_Report.xlsx
@@ -463,27 +463,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.8447</t>
+          <t>0.9048</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.8894</t>
+          <t>0.7917</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.8665</t>
+          <t>0.8444</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -517,54 +517,54 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.9048</t>
+          <t>0.8447</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.7917</t>
+          <t>0.8894</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.8444</t>
+          <t>0.8665</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>208</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.9272</t>
+          <t>0.9129</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9091</t>
+          <t>0.9532</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.9180</t>
+          <t>0.9326</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>363</t>
         </is>
       </c>
     </row>
@@ -598,54 +598,54 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.9129</t>
+          <t>0.9272</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9532</t>
+          <t>0.9091</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.9326</t>
+          <t>0.9180</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>154</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>CCC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.0000</t>
+          <t>0.7857</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.0000</t>
+          <t>0.8462</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.0000</t>
+          <t>0.8148</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -679,27 +679,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.7857</t>
+          <t>1.0000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.8462</t>
+          <t>1.0000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.8148</t>
+          <t>1.0000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>4</t>
         </is>
       </c>
     </row>
